--- a/biology/Zoologie/Cercocebus/Cercocebus.xlsx
+++ b/biology/Zoologie/Cercocebus/Cercocebus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercocèbes, Mangabeys
 Cercocebus est un genre de Primates de la famille des Cercopithecidae. Ces espèces sont appelées cercocèbes ou mangabeys.
@@ -512,17 +524,19 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces actuelles selon ITIS[1] et la troisième édition de Mammal Species of the World de 2005:
-Cercocebus agilis A. Milne-Edwards, 1886 - Cercocèbe agile[2],[3], Cercocèbe à crête[2],[3], Mangabey agile[3]
-Cercocebus atys Audebert, 1797 - Singe vert mangabey[2], Mangabey fulgineux[4], Cercocèbe enfumé [2] ou Mangabey enfumé [3]
-Cercocebus chrysogaster Lydekker, 1900 - Mangabey doré[2],[3], Cercocèbe à ventre doré [3] ou Mangabey à ventre doré [2]
-Cercocebus galeritus Peters, 1879 - Mangabey de la Tana[2],[3],[4], Mangabey à crête[3], Mangabey à ventre doré [2]
-Cercocebus lunulatus (Temminck, 1853)[N 1] - Cercocèbe à col blanc[2], Cercocèbe couronné[2] ou Mangabey couronné[2],[3]
-Cercocebus sanjei Mittermeier, 1986 - Mangabey sanje[2]
-Cercocebus torquatus (Kerr in Linnaeus, 1792) - Cercocèbe à collier blanc[2],[3] ou Mangabey à collier blanc[2],[4], Mangabey à collier[3], Cercocèbe enfumé [2] ou Mangabey enfumé [2].
-Les deux espèces anciennement nommé Cercocebus albigena et Cercocebus aterrimus ont été reclassées à part dans le genre Lophocebus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces actuelles selon ITIS et la troisième édition de Mammal Species of the World de 2005:
+Cercocebus agilis A. Milne-Edwards, 1886 - Cercocèbe agile Cercocèbe à crête Mangabey agile
+Cercocebus atys Audebert, 1797 - Singe vert mangabey, Mangabey fulgineux, Cercocèbe enfumé  ou Mangabey enfumé 
+Cercocebus chrysogaster Lydekker, 1900 - Mangabey doré Cercocèbe à ventre doré  ou Mangabey à ventre doré 
+Cercocebus galeritus Peters, 1879 - Mangabey de la Tana Mangabey à crête, Mangabey à ventre doré 
+Cercocebus lunulatus (Temminck, 1853)[N 1] - Cercocèbe à col blanc, Cercocèbe couronné ou Mangabey couronné,
+Cercocebus sanjei Mittermeier, 1986 - Mangabey sanje
+Cercocebus torquatus (Kerr in Linnaeus, 1792) - Cercocèbe à collier blanc, ou Mangabey à collier blanc Mangabey à collier, Cercocèbe enfumé  ou Mangabey enfumé .
+Les deux espèces anciennement nommé Cercocebus albigena et Cercocebus aterrimus ont été reclassées à part dans le genre Lophocebus.
 </t>
         </is>
       </c>
